--- a/US President Data Clean.xlsx
+++ b/US President Data Clean.xlsx
@@ -3,11 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="RAW_US_Presidents Excel Tutoria" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="CLEAN_US_Presidents Excel Tutor" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="RAW_US_Presidents" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="CLEAN_US_Presidents" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'CLEAN_US_Presidents Excel Tutor'!$A$1:$H$47</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">CLEAN_US_Presidents!$A$1:$H$47</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
